--- a/Historgram.xlsx
+++ b/Historgram.xlsx
@@ -5,16 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DavidLiang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DavidLiang/Documents/GitHub/HiMCM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31ABF7BF-CC91-9F4E-9D08-705BC61CCFA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5712B24D-02FA-7E40-A64A-4DEE44E12DA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RollerCoasterData" sheetId="8" r:id="rId1"/>
     <sheet name="Height" sheetId="9" r:id="rId2"/>
+    <sheet name="Speed" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">RollerCoasterData!$A$296:$I$301</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="687">
   <si>
     <t>Batman The Ride</t>
   </si>
@@ -1185,6 +1186,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Lucida Grande"/>
+        <family val="2"/>
       </rPr>
       <t>u</t>
     </r>
@@ -1193,6 +1195,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">hl </t>
     </r>
@@ -1242,6 +1245,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Lucida Grande"/>
+        <family val="2"/>
       </rPr>
       <t>o</t>
     </r>
@@ -1250,6 +1254,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ne-Alpes</t>
     </r>
@@ -1263,6 +1268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Lucida Grande"/>
+        <family val="2"/>
       </rPr>
       <t>e</t>
     </r>
@@ -1271,6 +1277,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>res</t>
     </r>
@@ -1284,6 +1291,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Lucida Grande"/>
+        <family val="2"/>
       </rPr>
       <t>o</t>
     </r>
@@ -1292,6 +1300,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ne-Alpes</t>
     </r>
@@ -1320,6 +1329,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Lucida Grande"/>
+        <family val="2"/>
       </rPr>
       <t>a</t>
     </r>
@@ -1328,6 +1338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>gico</t>
     </r>
@@ -1581,6 +1592,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Lucida Grande"/>
+        <family val="2"/>
       </rPr>
       <t>e</t>
     </r>
@@ -1589,6 +1601,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>rience</t>
     </r>
@@ -1626,6 +1639,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Lucida Grande"/>
+        <family val="2"/>
       </rPr>
       <t>e</t>
     </r>
@@ -1634,6 +1648,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>rix</t>
     </r>
@@ -1671,6 +1686,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Lucida Grande"/>
+        <family val="2"/>
       </rPr>
       <t>u</t>
     </r>
@@ -1679,6 +1695,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">hl </t>
     </r>
@@ -1704,6 +1721,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Lucida Grande"/>
+        <family val="2"/>
       </rPr>
       <t>a</t>
     </r>
@@ -1712,6 +1730,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>gico</t>
     </r>
@@ -1725,6 +1744,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Lucida Grande"/>
+        <family val="2"/>
       </rPr>
       <t>a</t>
     </r>
@@ -1744,6 +1764,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Lucida Grande"/>
+        <family val="2"/>
       </rPr>
       <t>a</t>
     </r>
@@ -1752,6 +1773,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>gico</t>
     </r>
@@ -1765,6 +1787,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Lucida Grande"/>
+        <family val="2"/>
       </rPr>
       <t>a</t>
     </r>
@@ -1799,6 +1822,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Lucida Grande"/>
+        <family val="2"/>
       </rPr>
       <t>a</t>
     </r>
@@ -1807,6 +1831,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>gica</t>
     </r>
@@ -1874,6 +1899,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Lucida Grande"/>
+        <family val="2"/>
       </rPr>
       <t>o</t>
     </r>
@@ -1882,6 +1908,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>rishofen</t>
     </r>
@@ -1934,6 +1961,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Lucida Grande"/>
+        <family val="2"/>
       </rPr>
       <t>n</t>
     </r>
@@ -1942,6 +1970,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>a Rusa</t>
     </r>
@@ -2335,6 +2364,15 @@
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>median</t>
   </si>
 </sst>
 </file>
@@ -2344,7 +2382,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2379,26 +2417,31 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2658,7 +2701,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2708,6 +2751,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="168" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2717,12 +2766,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="169">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -4002,15 +4046,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>306284</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>756125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>52759</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4365,11 +4409,11 @@
   </sheetPr>
   <dimension ref="A1:T306"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
@@ -4388,7 +4432,7 @@
     <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="45">
       <c r="A1" s="7" t="s">
         <v>183</v>
       </c>
@@ -4448,7 +4492,7 @@
       </c>
       <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
         <v>218</v>
       </c>
@@ -4502,7 +4546,7 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
         <v>644</v>
       </c>
@@ -4557,7 +4601,7 @@
       </c>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
         <v>489</v>
       </c>
@@ -4610,7 +4654,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>282</v>
       </c>
@@ -4664,7 +4708,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20">
       <c r="A6" s="2" t="s">
         <v>279</v>
       </c>
@@ -4722,7 +4766,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20">
       <c r="A7" s="2" t="s">
         <v>487</v>
       </c>
@@ -4775,7 +4819,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20">
       <c r="A8" s="2" t="s">
         <v>219</v>
       </c>
@@ -4827,7 +4871,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20">
       <c r="A9" s="2" t="s">
         <v>83</v>
       </c>
@@ -4884,7 +4928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20">
       <c r="A10" s="2" t="s">
         <v>139</v>
       </c>
@@ -4939,7 +4983,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
         <v>523</v>
       </c>
@@ -4994,7 +5038,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20">
       <c r="A12" s="2" t="s">
         <v>528</v>
       </c>
@@ -5049,7 +5093,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20">
       <c r="A13" s="2" t="s">
         <v>318</v>
       </c>
@@ -5108,7 +5152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
         <v>148</v>
       </c>
@@ -5161,7 +5205,7 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -5216,7 +5260,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20">
       <c r="A16" s="2" t="s">
         <v>594</v>
       </c>
@@ -5271,7 +5315,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19">
       <c r="A17" s="2" t="s">
         <v>150</v>
       </c>
@@ -5326,7 +5370,7 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19">
       <c r="A18" s="2" t="s">
         <v>275</v>
       </c>
@@ -5382,7 +5426,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19">
       <c r="A19" s="2" t="s">
         <v>463</v>
       </c>
@@ -5435,7 +5479,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19">
       <c r="A20" s="2" t="s">
         <v>533</v>
       </c>
@@ -5488,7 +5532,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -5541,7 +5585,7 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -5595,7 +5639,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -5650,7 +5694,7 @@
       </c>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -5706,7 +5750,7 @@
       </c>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -5761,7 +5805,7 @@
       </c>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>119</v>
       </c>
@@ -5814,7 +5858,7 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19">
       <c r="A27" s="3" t="s">
         <v>501</v>
       </c>
@@ -5869,7 +5913,7 @@
       </c>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19">
       <c r="A28" s="2" t="s">
         <v>655</v>
       </c>
@@ -5924,7 +5968,7 @@
       </c>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19">
       <c r="A29" s="2" t="s">
         <v>93</v>
       </c>
@@ -5981,7 +6025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19">
       <c r="A30" s="2" t="s">
         <v>255</v>
       </c>
@@ -6034,7 +6078,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
         <v>336</v>
       </c>
@@ -6089,7 +6133,7 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19">
       <c r="A32" s="2" t="s">
         <v>151</v>
       </c>
@@ -6140,7 +6184,7 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19">
       <c r="A33" s="2" t="s">
         <v>309</v>
       </c>
@@ -6199,7 +6243,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19">
       <c r="A34" s="2" t="s">
         <v>141</v>
       </c>
@@ -6254,7 +6298,7 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -6307,7 +6351,7 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19">
       <c r="A36" s="2" t="s">
         <v>266</v>
       </c>
@@ -6360,7 +6404,7 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19">
       <c r="A37" s="2" t="s">
         <v>153</v>
       </c>
@@ -6415,7 +6459,7 @@
       </c>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19">
       <c r="A38" s="2" t="s">
         <v>155</v>
       </c>
@@ -6470,7 +6514,7 @@
       </c>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19">
       <c r="A39" s="2" t="s">
         <v>297</v>
       </c>
@@ -6524,7 +6568,7 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19">
       <c r="A40" s="2" t="s">
         <v>94</v>
       </c>
@@ -6579,7 +6623,7 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19">
       <c r="A41" s="2" t="s">
         <v>67</v>
       </c>
@@ -6634,7 +6678,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19">
       <c r="A42" s="2" t="s">
         <v>126</v>
       </c>
@@ -6685,7 +6729,7 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -6740,7 +6784,7 @@
       </c>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -6795,7 +6839,7 @@
       </c>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -6850,7 +6894,7 @@
       </c>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
@@ -6905,7 +6949,7 @@
       </c>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19">
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
@@ -6960,7 +7004,7 @@
       </c>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -7015,7 +7059,7 @@
       </c>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -7070,7 +7114,7 @@
       </c>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -7125,7 +7169,7 @@
       </c>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
@@ -7180,7 +7224,7 @@
       </c>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
@@ -7235,7 +7279,7 @@
       </c>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19">
       <c r="A53" s="2" t="s">
         <v>538</v>
       </c>
@@ -7290,7 +7334,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19">
       <c r="A54" s="2" t="s">
         <v>595</v>
       </c>
@@ -7347,7 +7391,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19">
       <c r="A55" s="2" t="s">
         <v>247</v>
       </c>
@@ -7400,7 +7444,7 @@
       </c>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19">
       <c r="A56" s="2" t="s">
         <v>331</v>
       </c>
@@ -7455,7 +7499,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19">
       <c r="A57" s="2" t="s">
         <v>97</v>
       </c>
@@ -7508,7 +7552,7 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19">
       <c r="A58" s="2" t="s">
         <v>500</v>
       </c>
@@ -7563,7 +7607,7 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19">
       <c r="A59" s="2" t="s">
         <v>49</v>
       </c>
@@ -7616,7 +7660,7 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19">
       <c r="A60" s="2" t="s">
         <v>215</v>
       </c>
@@ -7671,7 +7715,7 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19">
       <c r="A61" s="2" t="s">
         <v>158</v>
       </c>
@@ -7724,7 +7768,7 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19">
       <c r="A62" s="2" t="s">
         <v>13</v>
       </c>
@@ -7777,7 +7821,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19">
       <c r="A63" s="2" t="s">
         <v>556</v>
       </c>
@@ -7830,7 +7874,7 @@
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19">
       <c r="A64" s="2" t="s">
         <v>98</v>
       </c>
@@ -7883,7 +7927,7 @@
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19">
       <c r="A65" s="2" t="s">
         <v>98</v>
       </c>
@@ -7936,7 +7980,7 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19">
       <c r="A66" s="2" t="s">
         <v>587</v>
       </c>
@@ -7989,7 +8033,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19">
       <c r="A67" s="2" t="s">
         <v>220</v>
       </c>
@@ -8041,7 +8085,7 @@
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19">
       <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
@@ -8098,7 +8142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19">
       <c r="A69" s="2" t="s">
         <v>15</v>
       </c>
@@ -8155,7 +8199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19">
       <c r="A70" s="2" t="s">
         <v>15</v>
       </c>
@@ -8212,7 +8256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19">
       <c r="A71" s="2" t="s">
         <v>135</v>
       </c>
@@ -8265,7 +8309,7 @@
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19">
       <c r="A72" s="2" t="s">
         <v>160</v>
       </c>
@@ -8318,7 +8362,7 @@
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19">
       <c r="A73" s="2" t="s">
         <v>213</v>
       </c>
@@ -8377,7 +8421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19">
       <c r="A74" s="2" t="s">
         <v>99</v>
       </c>
@@ -8432,7 +8476,7 @@
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19">
       <c r="A75" s="2" t="s">
         <v>328</v>
       </c>
@@ -8483,7 +8527,7 @@
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19">
       <c r="A76" s="2" t="s">
         <v>207</v>
       </c>
@@ -8534,7 +8578,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19">
       <c r="A77" s="2" t="s">
         <v>513</v>
       </c>
@@ -8585,7 +8629,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19">
       <c r="A78" s="2" t="s">
         <v>222</v>
       </c>
@@ -8641,7 +8685,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19">
       <c r="A79" s="2" t="s">
         <v>307</v>
       </c>
@@ -8694,7 +8738,7 @@
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19">
       <c r="A80" s="2" t="s">
         <v>291</v>
       </c>
@@ -8745,7 +8789,7 @@
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19">
       <c r="A81" s="2" t="s">
         <v>251</v>
       </c>
@@ -8798,7 +8842,7 @@
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19">
       <c r="A82" s="2" t="s">
         <v>162</v>
       </c>
@@ -8855,7 +8899,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19">
       <c r="A83" s="2" t="s">
         <v>162</v>
       </c>
@@ -8906,7 +8950,7 @@
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19">
       <c r="A84" s="2" t="s">
         <v>425</v>
       </c>
@@ -8961,7 +9005,7 @@
       </c>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19">
       <c r="A85" s="2" t="s">
         <v>164</v>
       </c>
@@ -9018,7 +9062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19">
       <c r="A86" s="2" t="s">
         <v>245</v>
       </c>
@@ -9071,7 +9115,7 @@
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19">
       <c r="A87" s="2" t="s">
         <v>289</v>
       </c>
@@ -9127,7 +9171,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19">
       <c r="A88" s="2" t="s">
         <v>100</v>
       </c>
@@ -9182,7 +9226,7 @@
       </c>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19">
       <c r="A89" s="2" t="s">
         <v>130</v>
       </c>
@@ -9235,7 +9279,7 @@
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19">
       <c r="A90" s="2" t="s">
         <v>322</v>
       </c>
@@ -9292,7 +9336,7 @@
       </c>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="2" t="s">
         <v>73</v>
       </c>
@@ -9347,7 +9391,7 @@
       </c>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="2" t="s">
         <v>18</v>
       </c>
@@ -9402,7 +9446,7 @@
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="2" t="s">
         <v>18</v>
       </c>
@@ -9455,7 +9499,7 @@
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="2" t="s">
         <v>101</v>
       </c>
@@ -9510,7 +9554,7 @@
       </c>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="2" t="s">
         <v>101</v>
       </c>
@@ -9565,7 +9609,7 @@
       </c>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="2" t="s">
         <v>223</v>
       </c>
@@ -9617,7 +9661,7 @@
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="2" t="s">
         <v>166</v>
       </c>
@@ -9670,7 +9714,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="2" t="s">
         <v>299</v>
       </c>
@@ -9724,7 +9768,7 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="2" t="s">
         <v>333</v>
       </c>
@@ -9777,7 +9821,7 @@
       </c>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="2" t="s">
         <v>515</v>
       </c>
@@ -9832,7 +9876,7 @@
       </c>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="2" t="s">
         <v>206</v>
       </c>
@@ -9883,7 +9927,7 @@
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="2" t="s">
         <v>211</v>
       </c>
@@ -9942,7 +9986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="2" t="s">
         <v>529</v>
       </c>
@@ -9997,7 +10041,7 @@
       </c>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="2" t="s">
         <v>242</v>
       </c>
@@ -10052,7 +10096,7 @@
       </c>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="2" t="s">
         <v>196</v>
       </c>
@@ -10107,7 +10151,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="2" t="s">
         <v>312</v>
       </c>
@@ -10160,7 +10204,7 @@
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="2" t="s">
         <v>293</v>
       </c>
@@ -10216,7 +10260,7 @@
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="2" t="s">
         <v>102</v>
       </c>
@@ -10271,7 +10315,7 @@
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="2" t="s">
         <v>19</v>
       </c>
@@ -10330,7 +10374,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="2" t="s">
         <v>20</v>
       </c>
@@ -10385,7 +10429,7 @@
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="13" t="s">
         <v>20</v>
       </c>
@@ -10436,7 +10480,7 @@
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="2" t="s">
         <v>25</v>
       </c>
@@ -10493,7 +10537,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="2" t="s">
         <v>25</v>
       </c>
@@ -10546,7 +10590,7 @@
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="2" t="s">
         <v>25</v>
       </c>
@@ -10601,7 +10645,7 @@
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="2" t="s">
         <v>25</v>
       </c>
@@ -10660,7 +10704,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="2" t="s">
         <v>25</v>
       </c>
@@ -10715,7 +10759,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="2" t="s">
         <v>143</v>
       </c>
@@ -10771,7 +10815,7 @@
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="2" t="s">
         <v>74</v>
       </c>
@@ -10828,7 +10872,7 @@
       </c>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="2" t="s">
         <v>586</v>
       </c>
@@ -10879,7 +10923,7 @@
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="2" t="s">
         <v>335</v>
       </c>
@@ -10936,7 +10980,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="2" t="s">
         <v>26</v>
       </c>
@@ -10989,7 +11033,7 @@
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="2" t="s">
         <v>583</v>
       </c>
@@ -11044,7 +11088,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="2" t="s">
         <v>115</v>
       </c>
@@ -11099,7 +11143,7 @@
       </c>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="2" t="s">
         <v>295</v>
       </c>
@@ -11146,7 +11190,7 @@
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="2" t="s">
         <v>560</v>
       </c>
@@ -11201,7 +11245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="2" t="s">
         <v>277</v>
       </c>
@@ -11257,7 +11301,7 @@
       </c>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="2" t="s">
         <v>273</v>
       </c>
@@ -11314,7 +11358,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="2" t="s">
         <v>324</v>
       </c>
@@ -11369,7 +11413,7 @@
       </c>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="2" t="s">
         <v>214</v>
       </c>
@@ -11426,7 +11470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="2" t="s">
         <v>267</v>
       </c>
@@ -11483,7 +11527,7 @@
       </c>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="2" t="s">
         <v>212</v>
       </c>
@@ -11538,7 +11582,7 @@
       <c r="R131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="2" t="s">
         <v>253</v>
       </c>
@@ -11595,7 +11639,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="2" t="s">
         <v>204</v>
       </c>
@@ -11652,7 +11696,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="2" t="s">
         <v>27</v>
       </c>
@@ -11707,7 +11751,7 @@
       </c>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="2" t="s">
         <v>103</v>
       </c>
@@ -11760,7 +11804,7 @@
       <c r="R135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="2" t="s">
         <v>526</v>
       </c>
@@ -11817,7 +11861,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="2" t="s">
         <v>342</v>
       </c>
@@ -11868,7 +11912,7 @@
       <c r="R137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="2" t="s">
         <v>525</v>
       </c>
@@ -11925,7 +11969,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="2" t="s">
         <v>525</v>
       </c>
@@ -11976,7 +12020,7 @@
       <c r="R139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="2" t="s">
         <v>28</v>
       </c>
@@ -12031,7 +12075,7 @@
       </c>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="2" t="s">
         <v>28</v>
       </c>
@@ -12082,7 +12126,7 @@
       <c r="R141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="2" t="s">
         <v>76</v>
       </c>
@@ -12137,7 +12181,7 @@
       <c r="R142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="2" t="s">
         <v>602</v>
       </c>
@@ -12194,7 +12238,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="2" t="s">
         <v>589</v>
       </c>
@@ -12249,7 +12293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="2" t="s">
         <v>127</v>
       </c>
@@ -12302,7 +12346,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="2" t="s">
         <v>283</v>
       </c>
@@ -12360,7 +12404,7 @@
       </c>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="2" t="s">
         <v>609</v>
       </c>
@@ -12417,7 +12461,7 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="2" t="s">
         <v>188</v>
       </c>
@@ -12474,7 +12518,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="2" t="s">
         <v>30</v>
       </c>
@@ -12527,7 +12571,7 @@
       <c r="R149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="2" t="s">
         <v>269</v>
       </c>
@@ -12583,7 +12627,7 @@
       <c r="R150" s="4"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="2" t="s">
         <v>265</v>
       </c>
@@ -12641,7 +12685,7 @@
       </c>
       <c r="S151" s="4"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="2" t="s">
         <v>60</v>
       </c>
@@ -12694,7 +12738,7 @@
       <c r="R152" s="4"/>
       <c r="S152" s="4"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="2" t="s">
         <v>201</v>
       </c>
@@ -12751,7 +12795,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="2" t="s">
         <v>613</v>
       </c>
@@ -12808,7 +12852,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="2" t="s">
         <v>170</v>
       </c>
@@ -12861,7 +12905,7 @@
       <c r="R155" s="4"/>
       <c r="S155" s="4"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="2" t="s">
         <v>104</v>
       </c>
@@ -12918,7 +12962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="2" t="s">
         <v>320</v>
       </c>
@@ -12971,7 +13015,7 @@
       <c r="R157" s="4"/>
       <c r="S157" s="4"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="2" t="s">
         <v>304</v>
       </c>
@@ -13028,7 +13072,7 @@
       </c>
       <c r="S158" s="4"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="2" t="s">
         <v>171</v>
       </c>
@@ -13079,7 +13123,7 @@
       <c r="R159" s="4"/>
       <c r="S159" s="4"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="2" t="s">
         <v>519</v>
       </c>
@@ -13134,7 +13178,7 @@
       <c r="R160" s="4"/>
       <c r="S160" s="4"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="2" t="s">
         <v>519</v>
       </c>
@@ -13191,7 +13235,7 @@
       </c>
       <c r="S161" s="4"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="2" t="s">
         <v>105</v>
       </c>
@@ -13248,7 +13292,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="2" t="s">
         <v>33</v>
       </c>
@@ -13305,7 +13349,7 @@
       </c>
       <c r="S163" s="4"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="2" t="s">
         <v>532</v>
       </c>
@@ -13356,7 +13400,7 @@
       <c r="R164" s="4"/>
       <c r="S164" s="4"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="2" t="s">
         <v>106</v>
       </c>
@@ -13413,7 +13457,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="2" t="s">
         <v>116</v>
       </c>
@@ -13467,7 +13511,7 @@
       <c r="R166" s="4"/>
       <c r="S166" s="4"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="2" t="s">
         <v>116</v>
       </c>
@@ -13520,7 +13564,7 @@
       <c r="R167" s="4"/>
       <c r="S167" s="4"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="2" t="s">
         <v>618</v>
       </c>
@@ -13575,7 +13619,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="2" t="s">
         <v>290</v>
       </c>
@@ -13628,7 +13672,7 @@
       <c r="R169" s="4"/>
       <c r="S169" s="4"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="2" t="s">
         <v>464</v>
       </c>
@@ -13679,7 +13723,7 @@
       <c r="R170" s="4"/>
       <c r="S170" s="4"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="2" t="s">
         <v>514</v>
       </c>
@@ -13730,7 +13774,7 @@
       <c r="R171" s="4"/>
       <c r="S171" s="4"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="2" t="s">
         <v>553</v>
       </c>
@@ -13779,7 +13823,7 @@
       <c r="R172" s="4"/>
       <c r="S172" s="4"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="2" t="s">
         <v>34</v>
       </c>
@@ -13832,7 +13876,7 @@
       <c r="R173" s="4"/>
       <c r="S173" s="4"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="2" t="s">
         <v>132</v>
       </c>
@@ -13883,7 +13927,7 @@
       <c r="R174" s="4"/>
       <c r="S174" s="4"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="2" t="s">
         <v>263</v>
       </c>
@@ -13943,7 +13987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="2" t="s">
         <v>173</v>
       </c>
@@ -13996,7 +14040,7 @@
       <c r="R176" s="4"/>
       <c r="S176" s="4"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="2" t="s">
         <v>330</v>
       </c>
@@ -14047,7 +14091,7 @@
       <c r="R177" s="4"/>
       <c r="S177" s="4"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="2" t="s">
         <v>330</v>
       </c>
@@ -14098,7 +14142,7 @@
       <c r="R178" s="4"/>
       <c r="S178" s="4"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="2" t="s">
         <v>619</v>
       </c>
@@ -14153,7 +14197,7 @@
       <c r="R179" s="4"/>
       <c r="S179" s="4"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="2" t="s">
         <v>620</v>
       </c>
@@ -14210,7 +14254,7 @@
       </c>
       <c r="S180" s="4"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="2" t="s">
         <v>544</v>
       </c>
@@ -14265,7 +14309,7 @@
       </c>
       <c r="S181" s="4"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="2" t="s">
         <v>174</v>
       </c>
@@ -14318,7 +14362,7 @@
       <c r="R182" s="4"/>
       <c r="S182" s="4"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="2" t="s">
         <v>530</v>
       </c>
@@ -14373,7 +14417,7 @@
       </c>
       <c r="S183" s="4"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19">
       <c r="A184" s="2" t="s">
         <v>536</v>
       </c>
@@ -14430,7 +14474,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19">
       <c r="A185" s="2" t="s">
         <v>35</v>
       </c>
@@ -14483,7 +14527,7 @@
       <c r="R185" s="4"/>
       <c r="S185" s="4"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19">
       <c r="A186" s="2" t="s">
         <v>254</v>
       </c>
@@ -14538,7 +14582,7 @@
       <c r="R186" s="4"/>
       <c r="S186" s="4"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19">
       <c r="A187" s="2" t="s">
         <v>326</v>
       </c>
@@ -14597,7 +14641,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19">
       <c r="A188" s="2" t="s">
         <v>248</v>
       </c>
@@ -14650,7 +14694,7 @@
       </c>
       <c r="S188" s="4"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19">
       <c r="A189" s="2" t="s">
         <v>584</v>
       </c>
@@ -14707,7 +14751,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19">
       <c r="A190" s="2" t="s">
         <v>527</v>
       </c>
@@ -14758,7 +14802,7 @@
       <c r="R190" s="4"/>
       <c r="S190" s="4"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19">
       <c r="A191" s="2" t="s">
         <v>527</v>
       </c>
@@ -14813,7 +14857,7 @@
       <c r="R191" s="4"/>
       <c r="S191" s="4"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19">
       <c r="A192" s="2" t="s">
         <v>566</v>
       </c>
@@ -14868,7 +14912,7 @@
       <c r="R192" s="4"/>
       <c r="S192" s="4"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19">
       <c r="A193" s="2" t="s">
         <v>287</v>
       </c>
@@ -14921,7 +14965,7 @@
       <c r="R193" s="4"/>
       <c r="S193" s="4"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:19">
       <c r="A194" s="13" t="s">
         <v>239</v>
       </c>
@@ -14976,7 +15020,7 @@
       <c r="R194" s="4"/>
       <c r="S194" s="4"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:19">
       <c r="A195" s="2" t="s">
         <v>623</v>
       </c>
@@ -15031,7 +15075,7 @@
       <c r="R195" s="4"/>
       <c r="S195" s="4"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:19">
       <c r="A196" s="2" t="s">
         <v>626</v>
       </c>
@@ -15088,7 +15132,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:19">
       <c r="A197" s="2" t="s">
         <v>77</v>
       </c>
@@ -15143,7 +15187,7 @@
       </c>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:19">
       <c r="A198" s="2" t="s">
         <v>567</v>
       </c>
@@ -15198,7 +15242,7 @@
       <c r="R198" s="4"/>
       <c r="S198" s="4"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:19">
       <c r="A199" s="13" t="s">
         <v>285</v>
       </c>
@@ -15252,7 +15296,7 @@
       <c r="R199" s="4"/>
       <c r="S199" s="4"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:19">
       <c r="A200" s="2" t="s">
         <v>631</v>
       </c>
@@ -15307,7 +15351,7 @@
       <c r="R200" s="4"/>
       <c r="S200" s="4"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:19">
       <c r="A201" s="2" t="s">
         <v>465</v>
       </c>
@@ -15360,7 +15404,7 @@
       </c>
       <c r="S201" s="4"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:19">
       <c r="A202" s="2" t="s">
         <v>107</v>
       </c>
@@ -15415,7 +15459,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:19">
       <c r="A203" s="2" t="s">
         <v>86</v>
       </c>
@@ -15472,7 +15516,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:19">
       <c r="A204" s="2" t="s">
         <v>407</v>
       </c>
@@ -15525,7 +15569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:19">
       <c r="A205" s="2" t="s">
         <v>506</v>
       </c>
@@ -15576,7 +15620,7 @@
       <c r="R205" s="4"/>
       <c r="S205" s="4"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:19">
       <c r="A206" s="2" t="s">
         <v>108</v>
       </c>
@@ -15633,7 +15677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:19">
       <c r="A207" s="2" t="s">
         <v>108</v>
       </c>
@@ -15686,7 +15730,7 @@
       <c r="R207" s="4"/>
       <c r="S207" s="4"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:19">
       <c r="A208" s="2" t="s">
         <v>61</v>
       </c>
@@ -15739,7 +15783,7 @@
       <c r="R208" s="4"/>
       <c r="S208" s="4"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:19">
       <c r="A209" s="2" t="s">
         <v>632</v>
       </c>
@@ -15796,7 +15840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:19">
       <c r="A210" s="2" t="s">
         <v>193</v>
       </c>
@@ -15849,7 +15893,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:19">
       <c r="A211" s="2" t="s">
         <v>552</v>
       </c>
@@ -15904,7 +15948,7 @@
       <c r="R211" s="4"/>
       <c r="S211" s="4"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:19">
       <c r="A212" s="2" t="s">
         <v>549</v>
       </c>
@@ -15959,7 +16003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:19">
       <c r="A213" s="2" t="s">
         <v>534</v>
       </c>
@@ -16012,7 +16056,7 @@
       <c r="R213" s="4"/>
       <c r="S213" s="4"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:19">
       <c r="A214" s="2" t="s">
         <v>38</v>
       </c>
@@ -16069,7 +16113,7 @@
       </c>
       <c r="S214" s="4"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:19">
       <c r="A215" s="2" t="s">
         <v>314</v>
       </c>
@@ -16126,7 +16170,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:19">
       <c r="A216" s="2" t="s">
         <v>78</v>
       </c>
@@ -16181,7 +16225,7 @@
       <c r="R216" s="4"/>
       <c r="S216" s="4"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:19">
       <c r="A217" s="2" t="s">
         <v>144</v>
       </c>
@@ -16236,7 +16280,7 @@
       </c>
       <c r="S217" s="4"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:19">
       <c r="A218" s="2" t="s">
         <v>409</v>
       </c>
@@ -16293,7 +16337,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:19">
       <c r="A219" s="2" t="s">
         <v>545</v>
       </c>
@@ -16348,7 +16392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:19">
       <c r="A220" s="2" t="s">
         <v>252</v>
       </c>
@@ -16401,7 +16445,7 @@
       <c r="R220" s="4"/>
       <c r="S220" s="4"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:19">
       <c r="A221" s="2" t="s">
         <v>39</v>
       </c>
@@ -16456,7 +16500,7 @@
       <c r="R221" s="4"/>
       <c r="S221" s="4"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:19">
       <c r="A222" s="2" t="s">
         <v>40</v>
       </c>
@@ -16511,7 +16555,7 @@
       <c r="R222" s="4"/>
       <c r="S222" s="4"/>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:19">
       <c r="A223" s="2" t="s">
         <v>216</v>
       </c>
@@ -16568,7 +16612,7 @@
       </c>
       <c r="S223" s="4"/>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:19">
       <c r="A224" s="2" t="s">
         <v>537</v>
       </c>
@@ -16621,7 +16665,7 @@
       <c r="R224" s="4"/>
       <c r="S224" s="4"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:19">
       <c r="A225" s="2" t="s">
         <v>117</v>
       </c>
@@ -16676,7 +16720,7 @@
       </c>
       <c r="S225" s="4"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:19">
       <c r="A226" s="2" t="s">
         <v>41</v>
       </c>
@@ -16731,7 +16775,7 @@
       <c r="R226" s="4"/>
       <c r="S226" s="4"/>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:19">
       <c r="A227" s="2" t="s">
         <v>175</v>
       </c>
@@ -16790,7 +16834,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:19">
       <c r="A228" s="2" t="s">
         <v>634</v>
       </c>
@@ -16845,7 +16889,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:19">
       <c r="A229" s="2" t="s">
         <v>176</v>
       </c>
@@ -16900,7 +16944,7 @@
       </c>
       <c r="S229" s="4"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:19">
       <c r="A230" s="2" t="s">
         <v>341</v>
       </c>
@@ -16953,7 +16997,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:19">
       <c r="A231" s="2" t="s">
         <v>217</v>
       </c>
@@ -17013,7 +17057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:19">
       <c r="A232" s="2" t="s">
         <v>445</v>
       </c>
@@ -17070,7 +17114,7 @@
       </c>
       <c r="S232" s="4"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:19">
       <c r="A233" s="2" t="s">
         <v>294</v>
       </c>
@@ -17122,7 +17166,7 @@
       <c r="R233" s="4"/>
       <c r="S233" s="4"/>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:19">
       <c r="A234" s="2" t="s">
         <v>339</v>
       </c>
@@ -17175,7 +17219,7 @@
       <c r="R234" s="4"/>
       <c r="S234" s="4"/>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:19">
       <c r="A235" s="2" t="s">
         <v>484</v>
       </c>
@@ -17230,7 +17274,7 @@
       </c>
       <c r="S235" s="4"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:19">
       <c r="A236" s="2" t="s">
         <v>434</v>
       </c>
@@ -17283,7 +17327,7 @@
       <c r="R236" s="4"/>
       <c r="S236" s="4"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:19">
       <c r="A237" s="2" t="s">
         <v>505</v>
       </c>
@@ -17336,7 +17380,7 @@
       <c r="R237" s="4"/>
       <c r="S237" s="4"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:19">
       <c r="A238" s="2" t="s">
         <v>402</v>
       </c>
@@ -17387,7 +17431,7 @@
       <c r="R238" s="4"/>
       <c r="S238" s="4"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:19">
       <c r="A239" s="2" t="s">
         <v>413</v>
       </c>
@@ -17440,7 +17484,7 @@
       <c r="R239" s="4"/>
       <c r="S239" s="4"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:19">
       <c r="A240" s="2" t="s">
         <v>334</v>
       </c>
@@ -17493,7 +17537,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:19">
       <c r="A241" s="2" t="s">
         <v>198</v>
       </c>
@@ -17550,7 +17594,7 @@
       </c>
       <c r="S241" s="4"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:19">
       <c r="A242" s="2" t="s">
         <v>79</v>
       </c>
@@ -17609,7 +17653,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:19">
       <c r="A243" s="2" t="s">
         <v>303</v>
       </c>
@@ -17664,7 +17708,7 @@
       <c r="R243" s="4"/>
       <c r="S243" s="4"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:19">
       <c r="A244" s="2" t="s">
         <v>302</v>
       </c>
@@ -17721,7 +17765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:19">
       <c r="A245" s="2" t="s">
         <v>551</v>
       </c>
@@ -17776,7 +17820,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:19">
       <c r="A246" s="2" t="s">
         <v>635</v>
       </c>
@@ -17833,7 +17877,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:19">
       <c r="A247" s="2" t="s">
         <v>327</v>
       </c>
@@ -17890,7 +17934,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:19">
       <c r="A248" s="2" t="s">
         <v>499</v>
       </c>
@@ -17950,7 +17994,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:19">
       <c r="A249" s="2" t="s">
         <v>129</v>
       </c>
@@ -18001,7 +18045,7 @@
       <c r="R249" s="4"/>
       <c r="S249" s="4"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:19">
       <c r="A250" s="2" t="s">
         <v>319</v>
       </c>
@@ -18058,7 +18102,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:19">
       <c r="A251" s="2" t="s">
         <v>87</v>
       </c>
@@ -18113,7 +18157,7 @@
       <c r="R251" s="4"/>
       <c r="S251" s="4"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:19">
       <c r="A252" s="2" t="s">
         <v>271</v>
       </c>
@@ -18167,7 +18211,7 @@
       <c r="R252" s="4"/>
       <c r="S252" s="4"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:19">
       <c r="A253" s="2" t="s">
         <v>306</v>
       </c>
@@ -18222,7 +18266,7 @@
       <c r="R253" s="4"/>
       <c r="S253" s="4"/>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:19">
       <c r="A254" s="2" t="s">
         <v>80</v>
       </c>
@@ -18275,7 +18319,7 @@
       <c r="R254" s="4"/>
       <c r="S254" s="4"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:19">
       <c r="A255" s="2" t="s">
         <v>257</v>
       </c>
@@ -18330,7 +18374,7 @@
       <c r="R255" s="4"/>
       <c r="S255" s="4"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:19">
       <c r="A256" s="2" t="s">
         <v>208</v>
       </c>
@@ -18387,7 +18431,7 @@
       </c>
       <c r="S256" s="4"/>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:19">
       <c r="A257" s="2" t="s">
         <v>546</v>
       </c>
@@ -18442,7 +18486,7 @@
       </c>
       <c r="S257" s="4"/>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:19">
       <c r="A258" s="2" t="s">
         <v>315</v>
       </c>
@@ -18497,7 +18541,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:19">
       <c r="A259" s="2" t="s">
         <v>276</v>
       </c>
@@ -18553,7 +18597,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:19">
       <c r="A260" s="2" t="s">
         <v>582</v>
       </c>
@@ -18608,7 +18652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:19">
       <c r="A261" s="2" t="s">
         <v>503</v>
       </c>
@@ -18659,7 +18703,7 @@
       <c r="R261" s="4"/>
       <c r="S261" s="4"/>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:19">
       <c r="A262" s="2" t="s">
         <v>42</v>
       </c>
@@ -18712,7 +18756,7 @@
       <c r="R262" s="4"/>
       <c r="S262" s="4"/>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:19">
       <c r="A263" s="2" t="s">
         <v>177</v>
       </c>
@@ -18765,7 +18809,7 @@
       <c r="R263" s="4"/>
       <c r="S263" s="4"/>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:19">
       <c r="A264" s="2" t="s">
         <v>179</v>
       </c>
@@ -18818,7 +18862,7 @@
       <c r="R264" s="4"/>
       <c r="S264" s="4"/>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:19">
       <c r="A265" s="2" t="s">
         <v>43</v>
       </c>
@@ -18871,7 +18915,7 @@
       <c r="R265" s="4"/>
       <c r="S265" s="4"/>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:19">
       <c r="A266" s="2" t="s">
         <v>81</v>
       </c>
@@ -18924,7 +18968,7 @@
       <c r="R266" s="4"/>
       <c r="S266" s="4"/>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:19">
       <c r="A267" s="2" t="s">
         <v>249</v>
       </c>
@@ -18981,7 +19025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:19">
       <c r="A268" s="2" t="s">
         <v>588</v>
       </c>
@@ -19034,7 +19078,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:19">
       <c r="A269" s="2" t="s">
         <v>568</v>
       </c>
@@ -19091,7 +19135,7 @@
       </c>
       <c r="S269" s="4"/>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:19">
       <c r="A270" s="2" t="s">
         <v>54</v>
       </c>
@@ -19142,7 +19186,7 @@
       <c r="R270" s="4"/>
       <c r="S270" s="4"/>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:19">
       <c r="A271" s="2" t="s">
         <v>636</v>
       </c>
@@ -19199,7 +19243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:19">
       <c r="A272" s="2" t="s">
         <v>82</v>
       </c>
@@ -19254,7 +19298,7 @@
       <c r="R272" s="4"/>
       <c r="S272" s="4"/>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:19">
       <c r="A273" s="2" t="s">
         <v>124</v>
       </c>
@@ -19305,7 +19349,7 @@
       <c r="R273" s="4"/>
       <c r="S273" s="4"/>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:19">
       <c r="A274" s="2" t="s">
         <v>146</v>
       </c>
@@ -19358,7 +19402,7 @@
       <c r="R274" s="4"/>
       <c r="S274" s="4"/>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:19">
       <c r="A275" s="2" t="s">
         <v>109</v>
       </c>
@@ -19415,7 +19459,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:19">
       <c r="A276" s="2" t="s">
         <v>110</v>
       </c>
@@ -19466,7 +19510,7 @@
       <c r="R276" s="4"/>
       <c r="S276" s="4"/>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:19">
       <c r="A277" s="2" t="s">
         <v>209</v>
       </c>
@@ -19525,7 +19569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:19">
       <c r="A278" s="2" t="s">
         <v>531</v>
       </c>
@@ -19582,7 +19626,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:19">
       <c r="A279" s="2" t="s">
         <v>118</v>
       </c>
@@ -19635,7 +19679,7 @@
       </c>
       <c r="S279" s="4"/>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:19">
       <c r="A280" s="2" t="s">
         <v>210</v>
       </c>
@@ -19686,7 +19730,7 @@
       <c r="R280" s="4"/>
       <c r="S280" s="4"/>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:19">
       <c r="A281" s="2" t="s">
         <v>44</v>
       </c>
@@ -19737,7 +19781,7 @@
       <c r="R281" s="4"/>
       <c r="S281" s="4"/>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:19">
       <c r="A282" s="2" t="s">
         <v>317</v>
       </c>
@@ -19792,7 +19836,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:19">
       <c r="A283" s="2" t="s">
         <v>563</v>
       </c>
@@ -19847,7 +19891,7 @@
       </c>
       <c r="S283" s="4"/>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:19">
       <c r="A284" s="13" t="s">
         <v>221</v>
       </c>
@@ -19898,7 +19942,7 @@
       <c r="R284" s="4"/>
       <c r="S284" s="4"/>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:19">
       <c r="A285" s="2" t="s">
         <v>88</v>
       </c>
@@ -19949,7 +19993,7 @@
       <c r="R285" s="4"/>
       <c r="S285" s="4"/>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:19">
       <c r="A286" s="2" t="s">
         <v>45</v>
       </c>
@@ -20004,7 +20048,7 @@
       <c r="R286" s="4"/>
       <c r="S286" s="4"/>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:19">
       <c r="A287" s="2" t="s">
         <v>45</v>
       </c>
@@ -20061,7 +20105,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:19">
       <c r="A288" s="2" t="s">
         <v>46</v>
       </c>
@@ -20118,7 +20162,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:19">
       <c r="A289" s="2" t="s">
         <v>62</v>
       </c>
@@ -20175,7 +20219,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:19">
       <c r="A290" s="13" t="s">
         <v>564</v>
       </c>
@@ -20226,7 +20270,7 @@
       <c r="R290" s="4"/>
       <c r="S290" s="4"/>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:19">
       <c r="A291" s="2" t="s">
         <v>89</v>
       </c>
@@ -20281,7 +20325,7 @@
       <c r="R291" s="4"/>
       <c r="S291" s="4"/>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:19">
       <c r="A292" s="2" t="s">
         <v>535</v>
       </c>
@@ -20334,7 +20378,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:19">
       <c r="A293" s="2" t="s">
         <v>111</v>
       </c>
@@ -20389,7 +20433,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:19">
       <c r="A294" s="13" t="s">
         <v>524</v>
       </c>
@@ -20444,7 +20488,7 @@
       <c r="R294" s="4"/>
       <c r="S294" s="4"/>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:19">
       <c r="A295" s="2" t="s">
         <v>55</v>
       </c>
@@ -20499,7 +20543,7 @@
       <c r="R295" s="4"/>
       <c r="S295" s="4"/>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:19">
       <c r="A296" s="2" t="s">
         <v>55</v>
       </c>
@@ -20554,7 +20598,7 @@
       <c r="R296" s="4"/>
       <c r="S296" s="4"/>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:19">
       <c r="A297" s="2" t="s">
         <v>585</v>
       </c>
@@ -20613,7 +20657,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:19">
       <c r="A298" s="2" t="s">
         <v>180</v>
       </c>
@@ -20666,7 +20710,7 @@
       <c r="R298" s="4"/>
       <c r="S298" s="4"/>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:19">
       <c r="A299" s="2" t="s">
         <v>424</v>
       </c>
@@ -20721,7 +20765,7 @@
       </c>
       <c r="S299" s="4"/>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:19">
       <c r="A300" s="2" t="s">
         <v>47</v>
       </c>
@@ -20778,7 +20822,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:19">
       <c r="A301" s="2" t="s">
         <v>48</v>
       </c>
@@ -20835,29 +20879,29 @@
         <v>90</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A303" s="19" t="s">
+    <row r="303" spans="1:19" ht="16">
+      <c r="A303" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="B303" s="18"/>
-    </row>
-    <row r="304" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A304" s="17" t="s">
+      <c r="B303" s="22"/>
+    </row>
+    <row r="304" spans="1:19" ht="16">
+      <c r="A304" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="B304" s="18"/>
-    </row>
-    <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A305" s="17" t="s">
+      <c r="B304" s="22"/>
+    </row>
+    <row r="305" spans="1:2" ht="16">
+      <c r="A305" s="21" t="s">
         <v>651</v>
       </c>
-      <c r="B305" s="18"/>
-    </row>
-    <row r="306" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A306" s="17" t="s">
+      <c r="B305" s="22"/>
+    </row>
+    <row r="306" spans="1:2" ht="16">
+      <c r="A306" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="B306" s="18"/>
+      <c r="B306" s="22"/>
     </row>
   </sheetData>
   <sortState ref="A2:U301">
@@ -20889,41 +20933,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CE9E16-A086-364B-9722-8FE148C9002A}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="30">
       <c r="A1" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>681</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="10">
         <v>28.956</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>20</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="10">
         <v>30</v>
       </c>
@@ -20931,14 +20975,14 @@
         <f>B2+10</f>
         <v>30</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>30</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="10">
         <v>36.1</v>
       </c>
@@ -20946,14 +20990,14 @@
         <f t="shared" ref="B4:B46" si="0">B3+10</f>
         <v>40</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>40</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="10">
         <v>38.4</v>
       </c>
@@ -20961,14 +21005,14 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>50</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="10">
         <v>42.6</v>
       </c>
@@ -20976,14 +21020,14 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>60</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="10">
         <v>44.4</v>
       </c>
@@ -20991,14 +21035,14 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>70</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="10">
         <v>45.2</v>
       </c>
@@ -21006,14 +21050,14 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>80</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="18">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="10">
         <v>45.9</v>
       </c>
@@ -21021,14 +21065,14 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>90</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10">
         <v>46</v>
       </c>
@@ -21036,14 +21080,14 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>100</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10">
         <v>48</v>
       </c>
@@ -21051,14 +21095,14 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>110</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="10">
         <v>48</v>
       </c>
@@ -21066,14 +21110,14 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>120</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="10">
         <v>53</v>
       </c>
@@ -21081,14 +21125,14 @@
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>130</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="10">
         <v>55</v>
       </c>
@@ -21096,14 +21140,14 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>140</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="10">
         <v>56</v>
       </c>
@@ -21111,14 +21155,14 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>150</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="10">
         <v>57.1</v>
       </c>
@@ -21126,14 +21170,14 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="17">
         <v>160</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="10">
         <v>57.4</v>
       </c>
@@ -21141,14 +21185,14 @@
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="17">
         <v>170</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="10">
         <v>59.1</v>
       </c>
@@ -21156,14 +21200,14 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="17">
         <v>180</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="10">
         <v>60</v>
       </c>
@@ -21171,14 +21215,14 @@
         <f>B18+10</f>
         <v>190</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="17">
         <v>190</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="18">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="10">
         <v>62.3</v>
       </c>
@@ -21186,14 +21230,14 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="17">
         <v>200</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="18">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="10">
         <v>63</v>
       </c>
@@ -21201,14 +21245,14 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="17">
         <v>210</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="10">
         <v>64</v>
       </c>
@@ -21216,14 +21260,14 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="17">
         <v>220</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="10">
         <v>64</v>
       </c>
@@ -21231,14 +21275,14 @@
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="17">
         <v>230</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="10">
         <v>64</v>
       </c>
@@ -21246,14 +21290,14 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="17">
         <v>240</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="10">
         <v>64</v>
       </c>
@@ -21261,14 +21305,14 @@
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="17">
         <v>250</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="10">
         <v>64</v>
       </c>
@@ -21276,14 +21320,14 @@
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="17">
         <v>260</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="10">
         <v>65</v>
       </c>
@@ -21291,14 +21335,14 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="17">
         <v>270</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="10">
         <v>65.599999999999994</v>
       </c>
@@ -21306,14 +21350,14 @@
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="17">
         <v>280</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="10">
         <v>70</v>
       </c>
@@ -21321,14 +21365,14 @@
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="17">
         <v>290</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="10">
         <v>70</v>
       </c>
@@ -21336,14 +21380,14 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="17">
         <v>300</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="10">
         <v>70</v>
       </c>
@@ -21351,14 +21395,14 @@
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="17">
         <v>310</v>
       </c>
-      <c r="E31" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="10">
         <v>71</v>
       </c>
@@ -21366,14 +21410,14 @@
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="17">
         <v>320</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="10">
         <v>72</v>
       </c>
@@ -21381,14 +21425,14 @@
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="17">
         <v>330</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="10">
         <v>72.2</v>
       </c>
@@ -21396,14 +21440,14 @@
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="17">
         <v>340</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="10">
         <v>72.2</v>
       </c>
@@ -21411,14 +21455,14 @@
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="17">
         <v>350</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="10">
         <v>72.2</v>
       </c>
@@ -21426,14 +21470,14 @@
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="17">
         <v>360</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="10">
         <v>73</v>
       </c>
@@ -21441,14 +21485,14 @@
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="17">
         <v>370</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="10">
         <v>73</v>
       </c>
@@ -21456,14 +21500,14 @@
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="17">
         <v>380</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="10">
         <v>74.2</v>
       </c>
@@ -21471,14 +21515,14 @@
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="17">
         <v>390</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="10">
         <v>74.2</v>
       </c>
@@ -21486,14 +21530,14 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="17">
         <v>400</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="10">
         <v>75</v>
       </c>
@@ -21501,14 +21545,14 @@
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="17">
         <v>410</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="10">
         <v>75</v>
       </c>
@@ -21516,14 +21560,14 @@
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="17">
         <v>420</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="10">
         <v>75</v>
       </c>
@@ -21531,14 +21575,14 @@
         <f t="shared" si="0"/>
         <v>430</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="17">
         <v>430</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="10">
         <v>75</v>
       </c>
@@ -21546,14 +21590,14 @@
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="17">
         <v>440</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="10">
         <v>76</v>
       </c>
@@ -21561,14 +21605,14 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="17">
         <v>450</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="10">
         <v>78</v>
       </c>
@@ -21576,1290 +21620,1290 @@
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="17">
         <v>460</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="17" thickBot="1">
       <c r="A47" s="10">
         <v>78</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="10">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="10">
         <v>78.7</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="10">
         <v>78.8</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="10">
         <v>80.5</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="10">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="10">
         <v>83.7</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="10">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" s="10">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" s="10">
         <v>85.3</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="10">
         <v>85.3</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" s="10">
         <v>85.3</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="10">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="10">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="10">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="10">
         <v>91.2</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="10">
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="10">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="10">
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="10">
         <v>95.2</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="10">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="10">
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="10">
         <v>97.5</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="10">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="10">
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="10">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="10">
         <v>98.4</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="10">
         <v>98.4</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="10">
         <v>98.4</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="10">
         <v>98.4</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="10">
         <v>98.4</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="10">
         <v>98.4</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="10">
         <v>98.4</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="10">
         <v>98.4</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="10">
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98" s="10">
         <v>101.7</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99" s="10">
         <v>101.7</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100" s="10">
         <v>101.7</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1">
       <c r="A101" s="10">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1">
       <c r="A102" s="10">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1">
       <c r="A103" s="10">
         <v>102.3</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1">
       <c r="A104" s="10">
         <v>103.7</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1">
       <c r="A105" s="10">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1">
       <c r="A106" s="10">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1">
       <c r="A107" s="10">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1">
       <c r="A108" s="10">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1">
       <c r="A109" s="10">
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1">
       <c r="A110" s="10">
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1">
       <c r="A111" s="10">
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1">
       <c r="A112" s="10">
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1">
       <c r="A113" s="10">
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1">
       <c r="A114" s="10">
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1">
       <c r="A115" s="10">
         <v>106</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1">
       <c r="A116" s="10">
         <v>107</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1">
       <c r="A117" s="10">
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1">
       <c r="A118" s="10">
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1">
       <c r="A119" s="10">
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1">
       <c r="A120" s="10">
         <v>108.3</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1">
       <c r="A121" s="10">
         <v>108.3</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1">
       <c r="A122" s="10">
         <v>108.3</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1">
       <c r="A123" s="10">
         <v>108.3</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1">
       <c r="A124" s="10">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1">
       <c r="A125" s="10">
         <v>109.2</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1">
       <c r="A126" s="10">
         <v>109.3</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1">
       <c r="A127" s="10">
         <v>109.3</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1">
       <c r="A128" s="10">
         <v>109.3</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1">
       <c r="A129" s="10">
         <v>109.3</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1">
       <c r="A130" s="10">
         <v>109.3</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1">
       <c r="A131" s="10">
         <v>109.3</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1">
       <c r="A132" s="10">
         <v>109.3</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1">
       <c r="A133" s="10">
         <v>109.3</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1">
       <c r="A134" s="10">
         <v>109.3</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1">
       <c r="A135" s="10">
         <v>109.3</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1">
       <c r="A136" s="10">
         <v>109.3</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1">
       <c r="A137" s="10">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1">
       <c r="A138" s="10">
         <v>110</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1">
       <c r="A139" s="10">
         <v>110</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1">
       <c r="A140" s="10">
         <v>110</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1">
       <c r="A141" s="10">
         <v>111</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1">
       <c r="A142" s="10">
         <v>111.6</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1">
       <c r="A143" s="10">
         <v>113</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1">
       <c r="A144" s="10">
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1">
       <c r="A145" s="10">
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1">
       <c r="A146" s="10">
         <v>115</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1">
       <c r="A147" s="10">
         <v>115</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1">
       <c r="A148" s="10">
         <v>116</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1">
       <c r="A149" s="10">
         <v>116.5</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1">
       <c r="A150" s="10">
         <v>116.5</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1">
       <c r="A151" s="10">
         <v>116.5</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1">
       <c r="A152" s="10">
         <v>116.5</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1">
       <c r="A153" s="10">
         <v>116.5</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1">
       <c r="A154" s="10">
         <v>116.5</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1">
       <c r="A155" s="10">
         <v>116.5</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1">
       <c r="A156" s="10">
         <v>116.5</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1">
       <c r="A157" s="10">
         <v>116.5</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1">
       <c r="A158" s="10">
         <v>116.5</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1">
       <c r="A159" s="10">
         <v>116.5</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1">
       <c r="A160" s="10">
         <v>117.8</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1">
       <c r="A161" s="10">
         <v>117.8</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1">
       <c r="A162" s="10">
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1">
       <c r="A163" s="10">
         <v>118</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1">
       <c r="A164" s="10">
         <v>118.1</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1">
       <c r="A165" s="10">
         <v>118.1</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1">
       <c r="A166" s="10">
         <v>120</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1">
       <c r="A167" s="10">
         <v>120</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1">
       <c r="A168" s="10">
         <v>120</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1">
       <c r="A169" s="10">
         <v>121</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1">
       <c r="A170" s="10">
         <v>121</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1">
       <c r="A171" s="10">
         <v>122</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1">
       <c r="A172" s="10">
         <v>122</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1">
       <c r="A173" s="10">
         <v>124</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1">
       <c r="A174" s="10">
         <v>124.7</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1">
       <c r="A175" s="10">
         <v>125.3</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1">
       <c r="A176" s="10">
         <v>127</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1">
       <c r="A177" s="10">
         <v>127</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1">
       <c r="A178" s="10">
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1">
       <c r="A179" s="10">
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1">
       <c r="A180" s="10">
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1">
       <c r="A181" s="10">
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1">
       <c r="A182" s="10">
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1">
       <c r="A183" s="10">
         <v>134.5</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1">
       <c r="A184" s="10">
         <v>135</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1">
       <c r="A185" s="10">
         <v>136</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1">
       <c r="A186" s="10">
         <v>137</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1">
       <c r="A187" s="10">
         <v>137.80000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1">
       <c r="A188" s="10">
         <v>138</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1">
       <c r="A189" s="10">
         <v>139.1</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1">
       <c r="A190" s="10">
         <v>140</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1">
       <c r="A191" s="10">
         <v>141</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1">
       <c r="A192" s="10">
         <v>142</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1">
       <c r="A193" s="10">
         <v>143</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1">
       <c r="A194" s="10">
         <v>145</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1">
       <c r="A195" s="10">
         <v>145.26956994255599</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1">
       <c r="A196" s="10">
         <v>146</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1">
       <c r="A197" s="10">
         <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1">
       <c r="A198" s="10">
         <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1">
       <c r="A199" s="10">
         <v>148</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1">
       <c r="A200" s="10">
         <v>148</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1">
       <c r="A201" s="10">
         <v>148</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1">
       <c r="A202" s="10">
         <v>149</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1">
       <c r="A203" s="10">
         <v>149</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1">
       <c r="A204" s="10">
         <v>150</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1">
       <c r="A205" s="10">
         <v>150</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1">
       <c r="A206" s="10">
         <v>150</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1">
       <c r="A207" s="10">
         <v>150</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1">
       <c r="A208" s="10">
         <v>150</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1">
       <c r="A209" s="10">
         <v>150</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1">
       <c r="A210" s="10">
         <v>150</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1">
       <c r="A211" s="10">
         <v>150</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1">
       <c r="A212" s="10">
         <v>151.6</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1">
       <c r="A213" s="10">
         <v>151.6</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1">
       <c r="A214" s="10">
         <v>153</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1">
       <c r="A215" s="10">
         <v>156</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1">
       <c r="A216" s="10">
         <v>159</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1">
       <c r="A217" s="10">
         <v>160</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1">
       <c r="A218" s="10">
         <v>160</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1">
       <c r="A219" s="10">
         <v>160.80000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1">
       <c r="A220" s="10">
         <v>164.1</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1">
       <c r="A221" s="10">
         <v>164.1</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1">
       <c r="A222" s="10">
         <v>164.1</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1">
       <c r="A223" s="10">
         <v>165</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1">
       <c r="A224" s="10">
         <v>167</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1">
       <c r="A225" s="10">
         <v>168</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1">
       <c r="A226" s="10">
         <v>170</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1">
       <c r="A227" s="10">
         <v>170</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1">
       <c r="A228" s="10">
         <v>170</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1">
       <c r="A229" s="10">
         <v>170.6</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1">
       <c r="A230" s="10">
         <v>170.6</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1">
       <c r="A231" s="10">
         <v>173.9</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1">
       <c r="A232" s="10">
         <v>175</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1">
       <c r="A233" s="10">
         <v>179</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1">
       <c r="A234" s="10">
         <v>180.4</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1">
       <c r="A235" s="10">
         <v>181</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1">
       <c r="A236" s="10">
         <v>183.8</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1">
       <c r="A237" s="10">
         <v>183.8</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1">
       <c r="A238" s="10">
         <v>185</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1">
       <c r="A239" s="10">
         <v>185</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1">
       <c r="A240" s="10">
         <v>186</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1">
       <c r="A241" s="10">
         <v>188</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1">
       <c r="A242" s="10">
         <v>191</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1">
       <c r="A243" s="10">
         <v>191.6</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1">
       <c r="A244" s="10">
         <v>195</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1">
       <c r="A245" s="10">
         <v>196.8</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1">
       <c r="A246" s="10">
         <v>196.8</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1">
       <c r="A247" s="10">
         <v>196.8</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1">
       <c r="A248" s="10">
         <v>196.8</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1">
       <c r="A249" s="10">
         <v>197</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1">
       <c r="A250" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1">
       <c r="A251" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1">
       <c r="A252" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1">
       <c r="A253" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1">
       <c r="A254" s="10">
         <v>200.2</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1">
       <c r="A255" s="10">
         <v>200.2</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1">
       <c r="A256" s="10">
         <v>202</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1">
       <c r="A257" s="10">
         <v>203</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1">
       <c r="A258" s="10">
         <v>205</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1">
       <c r="A259" s="10">
         <v>205</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1">
       <c r="A260" s="10">
         <v>205</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1">
       <c r="A261" s="10">
         <v>205</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1">
       <c r="A262" s="10">
         <v>205.1</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1">
       <c r="A263" s="10">
         <v>206.7</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1">
       <c r="A264" s="10">
         <v>207</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1">
       <c r="A265" s="10">
         <v>207</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1">
       <c r="A266" s="10">
         <v>208</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1">
       <c r="A267" s="10">
         <v>208</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1">
       <c r="A268" s="10">
         <v>208</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1">
       <c r="A269" s="10">
         <v>209</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1">
       <c r="A270" s="10">
         <v>213</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1">
       <c r="A271" s="10">
         <v>215</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1">
       <c r="A272" s="10">
         <v>218</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1">
       <c r="A273" s="10">
         <v>218</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1">
       <c r="A274" s="10">
         <v>219.8</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1">
       <c r="A275" s="10">
         <v>223</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1">
       <c r="A276" s="10">
         <v>226.4</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1">
       <c r="A277" s="10">
         <v>230</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1">
       <c r="A278" s="10">
         <v>230</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1">
       <c r="A279" s="10">
         <v>230</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1">
       <c r="A280" s="10">
         <v>232</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1">
       <c r="A281" s="10">
         <v>235</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1">
       <c r="A282" s="10">
         <v>239.5</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1">
       <c r="A283" s="10">
         <v>239.5</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1">
       <c r="A284" s="10">
         <v>242.8</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1">
       <c r="A285" s="10">
         <v>245</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1">
       <c r="A286" s="10">
         <v>249.3</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1">
       <c r="A287" s="10">
         <v>249.3</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1">
       <c r="A288" s="10">
         <v>252.6</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1">
       <c r="A289" s="10">
         <v>259.2</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1">
       <c r="A290" s="10">
         <v>262.5</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1">
       <c r="A291" s="10">
         <v>305</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1">
       <c r="A292" s="10">
         <v>306</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1">
       <c r="A293" s="10">
         <v>310</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1">
       <c r="A294" s="10">
         <v>318.3</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1">
       <c r="A295" s="10">
         <v>325</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1">
       <c r="A296" s="10">
         <v>367.3</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1">
       <c r="A297" s="10">
         <v>377.3</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1">
       <c r="A298" s="10">
         <v>415</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1">
       <c r="A299" s="10">
         <v>420</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1">
       <c r="A300" s="10">
         <v>456</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1">
       <c r="A301" s="10"/>
     </row>
   </sheetData>
@@ -22869,4 +22913,2464 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDD9FAA-2112-6642-9DB6-9A0F1F8699E2}">
+  <dimension ref="A1:F306"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30">
+      <c r="A1" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="10">
+        <v>28</v>
+      </c>
+      <c r="D3" s="24">
+        <f>MIN(B2:B297)</f>
+        <v>28</v>
+      </c>
+      <c r="E3" s="24">
+        <f>MAX(B2:B297)</f>
+        <v>149.1</v>
+      </c>
+      <c r="F3" s="24">
+        <f>MEDIAN(B2:B297)</f>
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="10">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B6" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="10">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B8" s="10">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="10">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B11" s="10">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B12" s="10">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="10">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="10">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="10">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="B16" s="10">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B17" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="10">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B22" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B23" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="10">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B26" s="10">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B27" s="10">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B28" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B29" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B34" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="10">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B36" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B38" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B41" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B42" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="10">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B45" s="10">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B46" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B58" s="10">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" s="10">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B65" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B67" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B78" s="10">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B84" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B89" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B95" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B100" s="10">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B101" s="10">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B102" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B105" s="10">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B106" s="10">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B107" s="10">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B108" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B109" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B110" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" s="10">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" s="10">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B114" s="10">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B115" s="10">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B116" s="10">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B117" s="10">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B118" s="10">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B119" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B120" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B122" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B123" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B124" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B125" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="B126" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B127" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B129" s="10">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B130" s="10">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B131" s="10">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B132" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B133" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B134" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B135" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B139" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B140" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B141" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B142" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B143" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B144" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B145" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B146" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B147" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B148" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B149" s="10">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B150" s="10">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B151" s="10">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B152" s="10">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B153" s="10">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B154" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B156" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B157" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B158" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B159" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B160" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B161" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B162" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B163" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B164" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B165" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B166" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B167" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B168" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B169" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B170" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B171" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B172" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B173" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B174" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B175" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B176" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B177" s="10">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B178" s="10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B179" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B180" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B181" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B182" s="10">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B183" s="10">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B184" s="10">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B185" s="10">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B186" s="10">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B187" s="10">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B188" s="10">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B189" s="10">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B190" s="10">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B191" s="10">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B192" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B193" s="10">
+        <v>63.217729227544197</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B194" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B195" s="10">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B196" s="10">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B197" s="10">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B198" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B199" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B200" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B201" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B202" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B203" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B204" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B205" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B206" s="10">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B207" s="10">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B208" s="10">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B209" s="10">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B210" s="10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B211" s="10">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B212" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B213" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B214" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B215" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B216" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B217" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B218" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B219" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B220" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B221" s="10">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B222" s="10">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B223" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B224" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B225" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B226" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B227" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B228" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B229" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B230" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B231" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B232" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B233" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B234" s="10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B235" s="11">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B236" s="10">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B237" s="10">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B238" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B239" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B240" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B241" s="10">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B242" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B243" s="10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B244" s="10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B245" s="10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B246" s="10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B247" s="10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B248" s="11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B249" s="10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B250" s="10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B251" s="10">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B252" s="10">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B253" s="10">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B255" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B256" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B257" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B258" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B259" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B260" s="10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B261" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B262" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B263" s="10">
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B264" s="10">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B265" s="10">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B266" s="10">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B267" s="10">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B268" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B269" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B270" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B271" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B272" s="10">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B273" s="10">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B274" s="10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B275" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B276" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B277" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B278" s="10">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B279" s="10">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B280" s="10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B281" s="10">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B282" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B283" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B284" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B285" s="10">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B286" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B287" s="10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B288" s="10">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B289" s="10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B290" s="10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B291" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B292" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B293" s="10">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B294" s="10">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B295" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B296" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B297" s="10">
+        <v>149.1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B298" s="10"/>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B299" s="10"/>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B300" s="10"/>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B301" s="10"/>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303"/>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304"/>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305"/>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B306">
+    <sortCondition ref="B2:B306"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A306" r:id="rId1" display="https://coasterpedia.net/" xr:uid="{B18E5180-7EDE-E540-A68C-A5CB370C0047}"/>
+    <hyperlink ref="A305" r:id="rId2" display="https://www.ultimaterollercoaster.com/" xr:uid="{1D0BC2B2-3D66-D84F-BA88-B2A75888E0C9}"/>
+    <hyperlink ref="A304" r:id="rId3" display="https://rcdb.com/" xr:uid="{89FF9A26-5A25-674E-BC6F-099203695B8B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>